--- a/DEV/org.openl.rules/test/rules/calc1/CustomSpreadsheetInSpreadsheet.xlsx
+++ b/DEV/org.openl.rules/test/rules/calc1/CustomSpreadsheetInSpreadsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4920" windowWidth="14895" windowHeight="3180" tabRatio="878" firstSheet="9" activeTab="16"/>
+    <workbookView xWindow="-15" yWindow="4920" windowWidth="14895" windowHeight="3180" tabRatio="878"/>
   </bookViews>
   <sheets>
     <sheet name="Rating Algorithm" sheetId="18" r:id="rId1"/>
@@ -36,7 +36,7 @@
     <definedName name="State">Vocabulary!#REF!</definedName>
     <definedName name="YearInClaims">Vocabulary!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -4724,8 +4724,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -7046,7 +7046,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyAlignment="1"/>
@@ -7183,7 +7183,7 @@
     <xf numFmtId="0" fontId="16" fillId="5" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="13" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="13" borderId="66" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="67" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7520,6 +7520,54 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="119" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="128" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7530,6 +7578,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7538,75 +7607,6 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="139" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="140" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="117" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="129" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="122" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="119" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="128" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="121" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="127" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="145" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="36" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="37" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="43" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="143" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7625,18 +7625,18 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="142" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="144" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="150" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -7706,6 +7706,27 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="88" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="94" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7738,27 +7759,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="105" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="106" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="93" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8114,10 +8114,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:J96"/>
+  <dimension ref="B1:J98"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -8157,12 +8157,12 @@
     </row>
     <row r="4" spans="2:10" ht="15.75" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:10" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="231" t="s">
+      <c r="D6" s="205" t="s">
         <v>537</v>
       </c>
-      <c r="E6" s="232"/>
-      <c r="F6" s="232"/>
-      <c r="G6" s="233"/>
+      <c r="E6" s="206"/>
+      <c r="F6" s="206"/>
+      <c r="G6" s="207"/>
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D7" s="152"/>
@@ -8170,963 +8170,963 @@
       <c r="F7" s="152"/>
       <c r="G7" s="152"/>
     </row>
-    <row r="9" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="D9" s="205" t="s">
+    <row r="10" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B10" s="10"/>
+      <c r="D10" s="221" t="s">
+        <v>660</v>
+      </c>
+      <c r="E10" s="222"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="223"/>
+      <c r="J10" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="10"/>
+      <c r="D11" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="120" t="s">
+        <v>385</v>
+      </c>
+      <c r="F11" s="214" t="s">
+        <v>492</v>
+      </c>
+      <c r="G11" s="215" t="s">
+        <v>391</v>
+      </c>
+      <c r="J11" s="10"/>
+    </row>
+    <row r="12" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D12" s="216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="217"/>
+      <c r="F12" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D13" s="218" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="219"/>
+      <c r="F13" s="124" t="s">
+        <v>66</v>
+      </c>
+      <c r="G13" s="117" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D14" s="208" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" s="209"/>
+      <c r="F14" s="128" t="s">
+        <v>514</v>
+      </c>
+      <c r="G14" s="129" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="D15" s="210" t="s">
+        <v>362</v>
+      </c>
+      <c r="E15" s="211"/>
+      <c r="F15" s="124" t="s">
+        <v>364</v>
+      </c>
+      <c r="G15" s="117" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D16" s="208" t="s">
+        <v>363</v>
+      </c>
+      <c r="E16" s="209"/>
+      <c r="F16" s="128" t="s">
+        <v>517</v>
+      </c>
+      <c r="G16" s="129" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="210" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="211"/>
+      <c r="F17" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="117" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D18" s="208" t="s">
+        <v>184</v>
+      </c>
+      <c r="E18" s="209"/>
+      <c r="F18" s="128" t="s">
+        <v>518</v>
+      </c>
+      <c r="G18" s="129" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="D19" s="210" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="211"/>
+      <c r="F19" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="117" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="D20" s="208" t="s">
+        <v>185</v>
+      </c>
+      <c r="E20" s="209"/>
+      <c r="F20" s="128" t="s">
+        <v>519</v>
+      </c>
+      <c r="G20" s="129" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D21" s="210" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="211"/>
+      <c r="F21" s="124" t="s">
+        <v>69</v>
+      </c>
+      <c r="G21" s="117" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D22" s="208" t="s">
+        <v>186</v>
+      </c>
+      <c r="E22" s="209"/>
+      <c r="F22" s="128" t="s">
+        <v>520</v>
+      </c>
+      <c r="G22" s="129" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D23" s="210" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="211"/>
+      <c r="F23" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="117" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D24" s="208" t="s">
+        <v>187</v>
+      </c>
+      <c r="E24" s="209"/>
+      <c r="F24" s="128" t="s">
+        <v>521</v>
+      </c>
+      <c r="G24" s="129" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D25" s="210" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="211"/>
+      <c r="F25" s="124" t="s">
+        <v>71</v>
+      </c>
+      <c r="G25" s="117" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D26" s="208" t="s">
+        <v>188</v>
+      </c>
+      <c r="E26" s="209"/>
+      <c r="F26" s="128" t="s">
+        <v>522</v>
+      </c>
+      <c r="G26" s="129" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D27" s="210" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="211"/>
+      <c r="F27" s="124" t="s">
+        <v>72</v>
+      </c>
+      <c r="G27" s="117" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D28" s="208" t="s">
+        <v>189</v>
+      </c>
+      <c r="E28" s="209"/>
+      <c r="F28" s="128" t="s">
+        <v>523</v>
+      </c>
+      <c r="G28" s="129" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="D29" s="210" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="211"/>
+      <c r="F29" s="124" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="117" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" ht="30" x14ac:dyDescent="0.3">
+      <c r="D30" s="208" t="s">
+        <v>190</v>
+      </c>
+      <c r="E30" s="209"/>
+      <c r="F30" s="128" t="s">
+        <v>516</v>
+      </c>
+      <c r="G30" s="129" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.3">
+      <c r="D31" s="210" t="s">
+        <v>65</v>
+      </c>
+      <c r="E31" s="211"/>
+      <c r="F31" s="124" t="s">
+        <v>74</v>
+      </c>
+      <c r="G31" s="117" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D32" s="210" t="s">
+        <v>191</v>
+      </c>
+      <c r="E32" s="211"/>
+      <c r="F32" s="124" t="s">
+        <v>515</v>
+      </c>
+      <c r="G32" s="117" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D33" s="212" t="s">
+        <v>75</v>
+      </c>
+      <c r="E33" s="213"/>
+      <c r="F33" s="161" t="s">
+        <v>526</v>
+      </c>
+      <c r="G33" s="122" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B38" s="10"/>
+      <c r="D38" s="221" t="s">
+        <v>627</v>
+      </c>
+      <c r="E38" s="222"/>
+      <c r="F38" s="222"/>
+      <c r="G38" s="223"/>
+      <c r="J38" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="10"/>
+      <c r="D39" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="120" t="s">
+        <v>385</v>
+      </c>
+      <c r="F39" s="214" t="s">
+        <v>494</v>
+      </c>
+      <c r="G39" s="215" t="s">
+        <v>391</v>
+      </c>
+      <c r="J39" s="10"/>
+    </row>
+    <row r="40" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D40" s="216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="217"/>
+      <c r="F40" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D41" s="218" t="s">
+        <v>116</v>
+      </c>
+      <c r="E41" s="219"/>
+      <c r="F41" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="G41" s="117" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="208" t="s">
+        <v>117</v>
+      </c>
+      <c r="E42" s="209"/>
+      <c r="F42" s="128" t="s">
+        <v>527</v>
+      </c>
+      <c r="G42" s="129" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="210" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="211"/>
+      <c r="F43" s="124" t="s">
+        <v>135</v>
+      </c>
+      <c r="G43" s="117" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="208" t="s">
+        <v>134</v>
+      </c>
+      <c r="E44" s="209"/>
+      <c r="F44" s="128" t="s">
+        <v>528</v>
+      </c>
+      <c r="G44" s="129" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="D45" s="210" t="s">
+        <v>131</v>
+      </c>
+      <c r="E45" s="211"/>
+      <c r="F45" s="124" t="s">
+        <v>136</v>
+      </c>
+      <c r="G45" s="117" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="208" t="s">
+        <v>132</v>
+      </c>
+      <c r="E46" s="209"/>
+      <c r="F46" s="128" t="s">
+        <v>529</v>
+      </c>
+      <c r="G46" s="129" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="47" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="210" t="s">
+        <v>139</v>
+      </c>
+      <c r="E47" s="211"/>
+      <c r="F47" s="124" t="s">
+        <v>141</v>
+      </c>
+      <c r="G47" s="117" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="208" t="s">
+        <v>138</v>
+      </c>
+      <c r="E48" s="209"/>
+      <c r="F48" s="128" t="s">
+        <v>530</v>
+      </c>
+      <c r="G48" s="129" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="D49" s="210" t="s">
+        <v>142</v>
+      </c>
+      <c r="E49" s="211"/>
+      <c r="F49" s="124" t="s">
+        <v>144</v>
+      </c>
+      <c r="G49" s="117" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="208" t="s">
+        <v>143</v>
+      </c>
+      <c r="E50" s="209"/>
+      <c r="F50" s="128" t="s">
+        <v>531</v>
+      </c>
+      <c r="G50" s="129" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="51" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D51" s="210" t="s">
+        <v>145</v>
+      </c>
+      <c r="E51" s="211"/>
+      <c r="F51" s="151" t="s">
+        <v>532</v>
+      </c>
+      <c r="G51" s="129" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D52" s="212" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="213"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="122" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B57" s="16"/>
+      <c r="D57" s="221" t="s">
+        <v>481</v>
+      </c>
+      <c r="E57" s="222"/>
+      <c r="F57" s="222"/>
+      <c r="G57" s="223"/>
+      <c r="J57" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="16"/>
+      <c r="D58" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58" s="120" t="s">
+        <v>385</v>
+      </c>
+      <c r="F58" s="214" t="s">
+        <v>495</v>
+      </c>
+      <c r="G58" s="215" t="s">
+        <v>391</v>
+      </c>
+      <c r="J58" s="16"/>
+    </row>
+    <row r="59" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D59" s="216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="217"/>
+      <c r="F59" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G59" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D60" s="218" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="219"/>
+      <c r="F60" s="224" t="s">
+        <v>533</v>
+      </c>
+      <c r="G60" s="117" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D61" s="210" t="s">
+        <v>153</v>
+      </c>
+      <c r="E61" s="220"/>
+      <c r="F61" s="225"/>
+      <c r="G61" s="155" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D62" s="210" t="s">
+        <v>154</v>
+      </c>
+      <c r="E62" s="211"/>
+      <c r="F62" s="225"/>
+      <c r="G62" s="117" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="D63" s="210" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="220"/>
+      <c r="F63" s="225"/>
+      <c r="G63" s="155" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D64" s="210" t="s">
+        <v>156</v>
+      </c>
+      <c r="E64" s="211"/>
+      <c r="F64" s="225"/>
+      <c r="G64" s="117" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D65" s="208" t="s">
+        <v>165</v>
+      </c>
+      <c r="E65" s="209"/>
+      <c r="F65" s="226"/>
+      <c r="G65" s="129" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="66" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D66" s="210" t="s">
+        <v>177</v>
+      </c>
+      <c r="E66" s="211"/>
+      <c r="F66" s="124" t="s">
+        <v>534</v>
+      </c>
+      <c r="G66" s="117" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D67" s="212" t="s">
+        <v>114</v>
+      </c>
+      <c r="E67" s="213"/>
+      <c r="F67" s="126"/>
+      <c r="G67" s="122" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="72" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="B72" s="16"/>
+      <c r="D72" s="221" t="s">
+        <v>482</v>
+      </c>
+      <c r="E72" s="222"/>
+      <c r="F72" s="222"/>
+      <c r="G72" s="223"/>
+      <c r="J72" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="2:10" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="16"/>
+      <c r="D73" s="119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73" s="120" t="s">
+        <v>385</v>
+      </c>
+      <c r="F73" s="214" t="s">
+        <v>496</v>
+      </c>
+      <c r="G73" s="215" t="s">
+        <v>391</v>
+      </c>
+      <c r="J73" s="16"/>
+    </row>
+    <row r="74" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D74" s="216" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="217"/>
+      <c r="F74" s="127" t="s">
+        <v>8</v>
+      </c>
+      <c r="G74" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D75" s="218" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="219"/>
+      <c r="F75" s="229" t="s">
+        <v>535</v>
+      </c>
+      <c r="G75" s="117" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D76" s="210" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="220"/>
+      <c r="F76" s="230"/>
+      <c r="G76" s="155" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="77" spans="2:10" ht="30" x14ac:dyDescent="0.3">
+      <c r="D77" s="210" t="s">
+        <v>174</v>
+      </c>
+      <c r="E77" s="211"/>
+      <c r="F77" s="230"/>
+      <c r="G77" s="117" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D78" s="208" t="s">
+        <v>176</v>
+      </c>
+      <c r="E78" s="209"/>
+      <c r="F78" s="230"/>
+      <c r="G78" s="129" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="79" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D79" s="210" t="s">
+        <v>178</v>
+      </c>
+      <c r="E79" s="211"/>
+      <c r="F79" s="125" t="s">
+        <v>536</v>
+      </c>
+      <c r="G79" s="117" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="80" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="D80" s="212" t="s">
+        <v>114</v>
+      </c>
+      <c r="E80" s="213"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="122" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="86" spans="2:10" ht="21" x14ac:dyDescent="0.4">
+      <c r="D86" s="221" t="s">
         <v>480</v>
       </c>
-      <c r="E9" s="206"/>
-      <c r="F9" s="206"/>
-      <c r="G9" s="207"/>
-    </row>
-    <row r="10" spans="2:10" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D10" s="119" t="s">
+      <c r="E86" s="222"/>
+      <c r="F86" s="222"/>
+      <c r="G86" s="223"/>
+    </row>
+    <row r="87" spans="2:10" ht="201" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D87" s="119" t="s">
         <v>6</v>
       </c>
-      <c r="E10" s="120" t="s">
+      <c r="E87" s="120" t="s">
         <v>385</v>
       </c>
-      <c r="F10" s="211" t="s">
+      <c r="F87" s="214" t="s">
         <v>511</v>
       </c>
-      <c r="G10" s="212"/>
-    </row>
-    <row r="11" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D11" s="225" t="s">
+      <c r="G87" s="215"/>
+    </row>
+    <row r="88" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D88" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="226"/>
-      <c r="F11" s="127" t="s">
+      <c r="E88" s="217"/>
+      <c r="F88" s="127" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G88" s="40" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="16"/>
-      <c r="D12" s="213" t="s">
+    <row r="89" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B89" s="16"/>
+      <c r="D89" s="218" t="s">
         <v>620</v>
       </c>
-      <c r="E12" s="214"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="118" t="s">
+      <c r="E89" s="219"/>
+      <c r="F89" s="231"/>
+      <c r="G89" s="118" t="s">
         <v>622</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="J89" s="16" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="16"/>
-      <c r="D13" s="215" t="s">
+    <row r="90" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B90" s="16"/>
+      <c r="D90" s="210" t="s">
         <v>621</v>
       </c>
-      <c r="E13" s="216"/>
-      <c r="F13" s="209"/>
-      <c r="G13" s="117" t="s">
+      <c r="E90" s="211"/>
+      <c r="F90" s="232"/>
+      <c r="G90" s="117" t="s">
         <v>623</v>
       </c>
-      <c r="J13" s="16"/>
-    </row>
-    <row r="14" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="213" t="s">
+      <c r="J90" s="16"/>
+    </row>
+    <row r="91" spans="2:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="218" t="s">
         <v>733</v>
       </c>
-      <c r="E14" s="214"/>
-      <c r="F14" s="123"/>
-      <c r="G14" s="118" t="s">
+      <c r="E91" s="219"/>
+      <c r="F91" s="123"/>
+      <c r="G91" s="118" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D15" s="215" t="s">
+    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D92" s="210" t="s">
         <v>179</v>
       </c>
-      <c r="E15" s="216"/>
-      <c r="F15" s="210" t="s">
+      <c r="E92" s="211"/>
+      <c r="F92" s="233" t="s">
         <v>624</v>
       </c>
-      <c r="G15" s="117" t="s">
+      <c r="G92" s="117" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D16" s="215" t="s">
+    <row r="93" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D93" s="210" t="s">
         <v>181</v>
       </c>
-      <c r="E16" s="216"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="117" t="s">
+      <c r="E93" s="211"/>
+      <c r="F93" s="233"/>
+      <c r="G93" s="117" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="215" t="s">
+    <row r="94" spans="2:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="210" t="s">
         <v>182</v>
       </c>
-      <c r="E17" s="216"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="117" t="s">
+      <c r="E94" s="211"/>
+      <c r="F94" s="233"/>
+      <c r="G94" s="117" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="45" x14ac:dyDescent="0.3">
-      <c r="D18" s="213" t="s">
+    <row r="95" spans="2:10" ht="45" x14ac:dyDescent="0.3">
+      <c r="D95" s="218" t="s">
         <v>180</v>
       </c>
-      <c r="E18" s="214"/>
-      <c r="F18" s="160" t="s">
+      <c r="E95" s="219"/>
+      <c r="F95" s="160" t="s">
         <v>525</v>
       </c>
-      <c r="G18" s="118" t="s">
+      <c r="G95" s="118" t="s">
         <v>734</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="D19" s="215" t="s">
+    <row r="96" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B96" s="16"/>
+      <c r="D96" s="210" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="216"/>
-      <c r="F19" s="124" t="s">
+      <c r="E96" s="211"/>
+      <c r="F96" s="124" t="s">
         <v>192</v>
       </c>
-      <c r="G19" s="117" t="s">
+      <c r="G96" s="117" t="s">
         <v>388</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J96" s="16" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="52"/>
-      <c r="D20" s="221" t="s">
+    <row r="97" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B97" s="52"/>
+      <c r="D97" s="227" t="s">
         <v>205</v>
       </c>
-      <c r="E20" s="222"/>
-      <c r="F20" s="125" t="s">
+      <c r="E97" s="228"/>
+      <c r="F97" s="125" t="s">
         <v>513</v>
       </c>
-      <c r="G20" s="121" t="s">
+      <c r="G97" s="121" t="s">
         <v>389</v>
       </c>
-      <c r="J20" s="52" t="s">
+      <c r="J97" s="52" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="16"/>
-      <c r="D21" s="223" t="s">
+    <row r="98" spans="2:10" ht="36.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B98" s="16"/>
+      <c r="D98" s="212" t="s">
         <v>204</v>
       </c>
-      <c r="E21" s="224"/>
-      <c r="F21" s="126" t="s">
+      <c r="E98" s="213"/>
+      <c r="F98" s="126" t="s">
         <v>524</v>
       </c>
-      <c r="G21" s="122" t="s">
+      <c r="G98" s="122" t="s">
         <v>390</v>
       </c>
-      <c r="J21" s="16" t="s">
+      <c r="J98" s="16" t="s">
         <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B26" s="10"/>
-      <c r="D26" s="205" t="s">
-        <v>660</v>
-      </c>
-      <c r="E26" s="206"/>
-      <c r="F26" s="206"/>
-      <c r="G26" s="207"/>
-      <c r="J26" s="10" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10" ht="126.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="10"/>
-      <c r="D27" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="120" t="s">
-        <v>385</v>
-      </c>
-      <c r="F27" s="211" t="s">
-        <v>492</v>
-      </c>
-      <c r="G27" s="212" t="s">
-        <v>391</v>
-      </c>
-      <c r="J27" s="10"/>
-    </row>
-    <row r="28" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D28" s="225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" s="226"/>
-      <c r="F28" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D29" s="213" t="s">
-        <v>52</v>
-      </c>
-      <c r="E29" s="214"/>
-      <c r="F29" s="124" t="s">
-        <v>66</v>
-      </c>
-      <c r="G29" s="117" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D30" s="219" t="s">
-        <v>183</v>
-      </c>
-      <c r="E30" s="220"/>
-      <c r="F30" s="128" t="s">
-        <v>514</v>
-      </c>
-      <c r="G30" s="129" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="D31" s="215" t="s">
-        <v>362</v>
-      </c>
-      <c r="E31" s="216"/>
-      <c r="F31" s="124" t="s">
-        <v>364</v>
-      </c>
-      <c r="G31" s="117" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D32" s="219" t="s">
-        <v>363</v>
-      </c>
-      <c r="E32" s="220"/>
-      <c r="F32" s="128" t="s">
-        <v>517</v>
-      </c>
-      <c r="G32" s="129" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D33" s="215" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="216"/>
-      <c r="F33" s="124" t="s">
-        <v>67</v>
-      </c>
-      <c r="G33" s="117" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D34" s="219" t="s">
-        <v>184</v>
-      </c>
-      <c r="E34" s="220"/>
-      <c r="F34" s="128" t="s">
-        <v>518</v>
-      </c>
-      <c r="G34" s="129" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="D35" s="215" t="s">
-        <v>60</v>
-      </c>
-      <c r="E35" s="216"/>
-      <c r="F35" s="124" t="s">
-        <v>68</v>
-      </c>
-      <c r="G35" s="117" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="36" spans="4:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="D36" s="219" t="s">
-        <v>185</v>
-      </c>
-      <c r="E36" s="220"/>
-      <c r="F36" s="128" t="s">
-        <v>519</v>
-      </c>
-      <c r="G36" s="129" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D37" s="215" t="s">
-        <v>59</v>
-      </c>
-      <c r="E37" s="216"/>
-      <c r="F37" s="124" t="s">
-        <v>69</v>
-      </c>
-      <c r="G37" s="117" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D38" s="219" t="s">
-        <v>186</v>
-      </c>
-      <c r="E38" s="220"/>
-      <c r="F38" s="128" t="s">
-        <v>520</v>
-      </c>
-      <c r="G38" s="129" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="39" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D39" s="215" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="216"/>
-      <c r="F39" s="124" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="117" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D40" s="219" t="s">
-        <v>187</v>
-      </c>
-      <c r="E40" s="220"/>
-      <c r="F40" s="128" t="s">
-        <v>521</v>
-      </c>
-      <c r="G40" s="129" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D41" s="215" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="216"/>
-      <c r="F41" s="124" t="s">
-        <v>71</v>
-      </c>
-      <c r="G41" s="117" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D42" s="219" t="s">
-        <v>188</v>
-      </c>
-      <c r="E42" s="220"/>
-      <c r="F42" s="128" t="s">
-        <v>522</v>
-      </c>
-      <c r="G42" s="129" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D43" s="215" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="216"/>
-      <c r="F43" s="124" t="s">
-        <v>72</v>
-      </c>
-      <c r="G43" s="117" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D44" s="219" t="s">
-        <v>189</v>
-      </c>
-      <c r="E44" s="220"/>
-      <c r="F44" s="128" t="s">
-        <v>523</v>
-      </c>
-      <c r="G44" s="129" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="D45" s="215" t="s">
-        <v>64</v>
-      </c>
-      <c r="E45" s="216"/>
-      <c r="F45" s="124" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" s="117" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" ht="30" x14ac:dyDescent="0.3">
-      <c r="D46" s="219" t="s">
-        <v>190</v>
-      </c>
-      <c r="E46" s="220"/>
-      <c r="F46" s="128" t="s">
-        <v>516</v>
-      </c>
-      <c r="G46" s="129" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.3">
-      <c r="D47" s="215" t="s">
-        <v>65</v>
-      </c>
-      <c r="E47" s="216"/>
-      <c r="F47" s="124" t="s">
-        <v>74</v>
-      </c>
-      <c r="G47" s="117" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="48" spans="4:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D48" s="215" t="s">
-        <v>191</v>
-      </c>
-      <c r="E48" s="216"/>
-      <c r="F48" s="124" t="s">
-        <v>515</v>
-      </c>
-      <c r="G48" s="117" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" ht="127.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D49" s="223" t="s">
-        <v>75</v>
-      </c>
-      <c r="E49" s="224"/>
-      <c r="F49" s="161" t="s">
-        <v>526</v>
-      </c>
-      <c r="G49" s="122" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G52" s="6"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="G53" s="6"/>
-    </row>
-    <row r="54" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B54" s="10"/>
-      <c r="D54" s="205" t="s">
-        <v>627</v>
-      </c>
-      <c r="E54" s="206"/>
-      <c r="F54" s="206"/>
-      <c r="G54" s="207"/>
-      <c r="J54" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="10"/>
-      <c r="D55" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E55" s="120" t="s">
-        <v>385</v>
-      </c>
-      <c r="F55" s="211" t="s">
-        <v>494</v>
-      </c>
-      <c r="G55" s="212" t="s">
-        <v>391</v>
-      </c>
-      <c r="J55" s="10"/>
-    </row>
-    <row r="56" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D56" s="225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E56" s="226"/>
-      <c r="F56" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G56" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D57" s="213" t="s">
-        <v>116</v>
-      </c>
-      <c r="E57" s="214"/>
-      <c r="F57" s="124" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" s="117" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D58" s="219" t="s">
-        <v>117</v>
-      </c>
-      <c r="E58" s="220"/>
-      <c r="F58" s="128" t="s">
-        <v>527</v>
-      </c>
-      <c r="G58" s="129" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D59" s="215" t="s">
-        <v>133</v>
-      </c>
-      <c r="E59" s="216"/>
-      <c r="F59" s="124" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" s="117" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D60" s="219" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="220"/>
-      <c r="F60" s="128" t="s">
-        <v>528</v>
-      </c>
-      <c r="G60" s="129" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="D61" s="215" t="s">
-        <v>131</v>
-      </c>
-      <c r="E61" s="216"/>
-      <c r="F61" s="124" t="s">
-        <v>136</v>
-      </c>
-      <c r="G61" s="117" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D62" s="219" t="s">
-        <v>132</v>
-      </c>
-      <c r="E62" s="220"/>
-      <c r="F62" s="128" t="s">
-        <v>529</v>
-      </c>
-      <c r="G62" s="129" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D63" s="215" t="s">
-        <v>139</v>
-      </c>
-      <c r="E63" s="216"/>
-      <c r="F63" s="124" t="s">
-        <v>141</v>
-      </c>
-      <c r="G63" s="117" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="64" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D64" s="219" t="s">
-        <v>138</v>
-      </c>
-      <c r="E64" s="220"/>
-      <c r="F64" s="128" t="s">
-        <v>530</v>
-      </c>
-      <c r="G64" s="129" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="65" spans="2:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="D65" s="215" t="s">
-        <v>142</v>
-      </c>
-      <c r="E65" s="216"/>
-      <c r="F65" s="124" t="s">
-        <v>144</v>
-      </c>
-      <c r="G65" s="117" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="66" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D66" s="219" t="s">
-        <v>143</v>
-      </c>
-      <c r="E66" s="220"/>
-      <c r="F66" s="128" t="s">
-        <v>531</v>
-      </c>
-      <c r="G66" s="129" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="67" spans="2:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D67" s="215" t="s">
-        <v>145</v>
-      </c>
-      <c r="E67" s="216"/>
-      <c r="F67" s="151" t="s">
-        <v>532</v>
-      </c>
-      <c r="G67" s="129" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="68" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D68" s="223" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="224"/>
-      <c r="F68" s="126"/>
-      <c r="G68" s="122" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="73" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B73" s="16"/>
-      <c r="D73" s="205" t="s">
-        <v>481</v>
-      </c>
-      <c r="E73" s="206"/>
-      <c r="F73" s="206"/>
-      <c r="G73" s="207"/>
-      <c r="J73" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="74" spans="2:10" ht="84.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="16"/>
-      <c r="D74" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E74" s="120" t="s">
-        <v>385</v>
-      </c>
-      <c r="F74" s="211" t="s">
-        <v>495</v>
-      </c>
-      <c r="G74" s="212" t="s">
-        <v>391</v>
-      </c>
-      <c r="J74" s="16"/>
-    </row>
-    <row r="75" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D75" s="225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="226"/>
-      <c r="F75" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G75" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D76" s="213" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="214"/>
-      <c r="F76" s="228" t="s">
-        <v>533</v>
-      </c>
-      <c r="G76" s="117" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="77" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D77" s="215" t="s">
-        <v>153</v>
-      </c>
-      <c r="E77" s="227"/>
-      <c r="F77" s="229"/>
-      <c r="G77" s="155" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="78" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D78" s="215" t="s">
-        <v>154</v>
-      </c>
-      <c r="E78" s="216"/>
-      <c r="F78" s="229"/>
-      <c r="G78" s="117" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="79" spans="2:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="D79" s="215" t="s">
-        <v>155</v>
-      </c>
-      <c r="E79" s="227"/>
-      <c r="F79" s="229"/>
-      <c r="G79" s="155" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D80" s="215" t="s">
-        <v>156</v>
-      </c>
-      <c r="E80" s="216"/>
-      <c r="F80" s="229"/>
-      <c r="G80" s="117" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D81" s="219" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" s="220"/>
-      <c r="F81" s="230"/>
-      <c r="G81" s="129" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="82" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D82" s="215" t="s">
-        <v>177</v>
-      </c>
-      <c r="E82" s="216"/>
-      <c r="F82" s="124" t="s">
-        <v>534</v>
-      </c>
-      <c r="G82" s="117" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="83" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D83" s="223" t="s">
-        <v>114</v>
-      </c>
-      <c r="E83" s="224"/>
-      <c r="F83" s="126"/>
-      <c r="G83" s="122" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="88" spans="2:10" ht="21" x14ac:dyDescent="0.4">
-      <c r="B88" s="16"/>
-      <c r="D88" s="205" t="s">
-        <v>482</v>
-      </c>
-      <c r="E88" s="206"/>
-      <c r="F88" s="206"/>
-      <c r="G88" s="207"/>
-      <c r="J88" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" ht="88.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B89" s="16"/>
-      <c r="D89" s="119" t="s">
-        <v>6</v>
-      </c>
-      <c r="E89" s="120" t="s">
-        <v>385</v>
-      </c>
-      <c r="F89" s="211" t="s">
-        <v>496</v>
-      </c>
-      <c r="G89" s="212" t="s">
-        <v>391</v>
-      </c>
-      <c r="J89" s="16"/>
-    </row>
-    <row r="90" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D90" s="225" t="s">
-        <v>7</v>
-      </c>
-      <c r="E90" s="226"/>
-      <c r="F90" s="127" t="s">
-        <v>8</v>
-      </c>
-      <c r="G90" s="40" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D91" s="213" t="s">
-        <v>173</v>
-      </c>
-      <c r="E91" s="214"/>
-      <c r="F91" s="217" t="s">
-        <v>535</v>
-      </c>
-      <c r="G91" s="117" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D92" s="215" t="s">
-        <v>175</v>
-      </c>
-      <c r="E92" s="227"/>
-      <c r="F92" s="218"/>
-      <c r="G92" s="155" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="93" spans="2:10" ht="30" x14ac:dyDescent="0.3">
-      <c r="D93" s="215" t="s">
-        <v>174</v>
-      </c>
-      <c r="E93" s="216"/>
-      <c r="F93" s="218"/>
-      <c r="G93" s="117" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="94" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D94" s="219" t="s">
-        <v>176</v>
-      </c>
-      <c r="E94" s="220"/>
-      <c r="F94" s="218"/>
-      <c r="G94" s="129" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="95" spans="2:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D95" s="215" t="s">
-        <v>178</v>
-      </c>
-      <c r="E95" s="216"/>
-      <c r="F95" s="125" t="s">
-        <v>536</v>
-      </c>
-      <c r="G95" s="117" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="96" spans="2:10" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D96" s="223" t="s">
-        <v>114</v>
-      </c>
-      <c r="E96" s="224"/>
-      <c r="F96" s="126"/>
-      <c r="G96" s="122" t="s">
-        <v>430</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="77">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="D86:G86"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="F92:F94"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="D89:E89"/>
     <mergeCell ref="D90:E90"/>
     <mergeCell ref="D91:E91"/>
     <mergeCell ref="D92:E92"/>
     <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="F76:F81"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="D54:G54"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D72:G72"/>
+    <mergeCell ref="F75:F78"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="D38:G38"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="D44:E44"/>
     <mergeCell ref="D45:E45"/>
     <mergeCell ref="D46:E46"/>
     <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="F91:F94"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="D57:G57"/>
+    <mergeCell ref="F60:F65"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="D59:E59"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="J26" location="'Balance Quality'!A1" display="'Balance Quality'!A1"/>
-    <hyperlink ref="J54" location="'Balance Quality in Dynamic'!A1" display="'Balance Quality in Dynamic'!A1"/>
-    <hyperlink ref="J73" location="'Bank Qualitative factors'!A1" display="'Bank Qualitative factors'!A1"/>
-    <hyperlink ref="J88" location="'Central Bank Req'!A1" display="'Central Bank Req'!A1"/>
-    <hyperlink ref="J12" location="'Set NonZero Values'!A1" display="Set Default Values'!A1"/>
-    <hyperlink ref="J19" location="'Rating Groups'!A1" display="'Rating Groups'!A1"/>
-    <hyperlink ref="J20" location="Limit!A1" display="Limit!A1"/>
-    <hyperlink ref="J21" location="'Max Limit'!A1" display="'Max Limit'!A1"/>
+    <hyperlink ref="J10" location="'Balance Quality'!A1" display="'Balance Quality'!A1"/>
+    <hyperlink ref="J38" location="'Balance Quality in Dynamic'!A1" display="'Balance Quality in Dynamic'!A1"/>
+    <hyperlink ref="J57" location="'Bank Qualitative factors'!A1" display="'Bank Qualitative factors'!A1"/>
+    <hyperlink ref="J72" location="'Central Bank Req'!A1" display="'Central Bank Req'!A1"/>
+    <hyperlink ref="J89" location="'Set NonZero Values'!A1" display="Set Default Values'!A1"/>
+    <hyperlink ref="J96" location="'Rating Groups'!A1" display="'Rating Groups'!A1"/>
+    <hyperlink ref="J97" location="Limit!A1" display="Limit!A1"/>
+    <hyperlink ref="J98" location="'Max Limit'!A1" display="'Max Limit'!A1"/>
     <hyperlink ref="J1" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9356,11 +9356,11 @@
     </row>
     <row r="5" spans="1:6" s="15" customFormat="1" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="205" t="s">
         <v>567</v>
       </c>
-      <c r="D5" s="232"/>
-      <c r="E5" s="233"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="207"/>
       <c r="F5" s="16"/>
     </row>
     <row r="6" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -9369,10 +9369,10 @@
       <c r="F6" s="16"/>
     </row>
     <row r="8" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="240" t="s">
+      <c r="C8" s="242" t="s">
         <v>682</v>
       </c>
-      <c r="D8" s="240"/>
+      <c r="D8" s="242"/>
     </row>
     <row r="9" spans="1:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="39" t="s">
@@ -9605,7 +9605,7 @@
     </row>
     <row r="5" spans="1:15" s="15" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
-      <c r="D5" s="231" t="s">
+      <c r="D5" s="205" t="s">
         <v>568</v>
       </c>
       <c r="E5" s="261"/>
@@ -9616,28 +9616,28 @@
       <c r="O6" s="16"/>
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="221" t="s">
         <v>479</v>
       </c>
-      <c r="D8" s="206"/>
-      <c r="E8" s="206"/>
-      <c r="F8" s="206"/>
-      <c r="G8" s="206"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="206"/>
-      <c r="J8" s="206"/>
-      <c r="K8" s="206"/>
-      <c r="L8" s="206"/>
-      <c r="M8" s="207"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="222"/>
+      <c r="H8" s="222"/>
+      <c r="I8" s="222"/>
+      <c r="J8" s="222"/>
+      <c r="K8" s="222"/>
+      <c r="L8" s="222"/>
+      <c r="M8" s="223"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C9" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="D9" s="278" t="s">
+      <c r="D9" s="267" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="279"/>
+      <c r="E9" s="268"/>
       <c r="F9" s="116" t="s">
         <v>124</v>
       </c>
@@ -9657,10 +9657,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C10" s="90"/>
-      <c r="D10" s="280" t="s">
+      <c r="D10" s="269" t="s">
         <v>233</v>
       </c>
-      <c r="E10" s="281"/>
+      <c r="E10" s="270"/>
       <c r="F10" s="102" t="s">
         <v>465</v>
       </c>
@@ -9700,35 +9700,35 @@
       <c r="M11" s="46"/>
     </row>
     <row r="12" spans="1:15" s="15" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="273" t="s">
+      <c r="C12" s="280" t="s">
         <v>448</v>
       </c>
-      <c r="D12" s="282" t="s">
+      <c r="D12" s="271" t="s">
         <v>212</v>
       </c>
-      <c r="E12" s="282" t="s">
+      <c r="E12" s="271" t="s">
         <v>211</v>
       </c>
-      <c r="F12" s="284" t="s">
+      <c r="F12" s="273" t="s">
         <v>615</v>
       </c>
-      <c r="G12" s="267" t="s">
+      <c r="G12" s="274" t="s">
         <v>566</v>
       </c>
-      <c r="H12" s="268"/>
-      <c r="I12" s="268"/>
-      <c r="J12" s="268" t="s">
+      <c r="H12" s="275"/>
+      <c r="I12" s="275"/>
+      <c r="J12" s="275" t="s">
         <v>229</v>
       </c>
-      <c r="K12" s="268"/>
-      <c r="L12" s="268"/>
+      <c r="K12" s="275"/>
+      <c r="L12" s="275"/>
       <c r="M12" s="96"/>
     </row>
     <row r="13" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="274"/>
-      <c r="D13" s="283"/>
-      <c r="E13" s="283"/>
-      <c r="F13" s="283"/>
+      <c r="C13" s="281"/>
+      <c r="D13" s="272"/>
+      <c r="E13" s="272"/>
+      <c r="F13" s="272"/>
       <c r="G13" s="26" t="s">
         <v>538</v>
       </c>
@@ -9760,15 +9760,15 @@
         <v>333</v>
       </c>
       <c r="F14" s="248"/>
-      <c r="G14" s="269">
+      <c r="G14" s="276">
         <v>1</v>
       </c>
-      <c r="H14" s="269"/>
-      <c r="I14" s="269"/>
-      <c r="J14" s="269"/>
-      <c r="K14" s="269"/>
-      <c r="L14" s="269"/>
-      <c r="M14" s="270"/>
+      <c r="H14" s="276"/>
+      <c r="I14" s="276"/>
+      <c r="J14" s="276"/>
+      <c r="K14" s="276"/>
+      <c r="L14" s="276"/>
+      <c r="M14" s="277"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C15" s="33">
@@ -9781,13 +9781,13 @@
         <v>334</v>
       </c>
       <c r="F15" s="249"/>
-      <c r="G15" s="269"/>
-      <c r="H15" s="269"/>
-      <c r="I15" s="269"/>
-      <c r="J15" s="269"/>
-      <c r="K15" s="269"/>
-      <c r="L15" s="269"/>
-      <c r="M15" s="270"/>
+      <c r="G15" s="276"/>
+      <c r="H15" s="276"/>
+      <c r="I15" s="276"/>
+      <c r="J15" s="276"/>
+      <c r="K15" s="276"/>
+      <c r="L15" s="276"/>
+      <c r="M15" s="277"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="C16" s="33">
@@ -9800,13 +9800,13 @@
         <v>334</v>
       </c>
       <c r="F16" s="250"/>
-      <c r="G16" s="269"/>
-      <c r="H16" s="269"/>
-      <c r="I16" s="269"/>
-      <c r="J16" s="269"/>
-      <c r="K16" s="269"/>
-      <c r="L16" s="269"/>
-      <c r="M16" s="270"/>
+      <c r="G16" s="276"/>
+      <c r="H16" s="276"/>
+      <c r="I16" s="276"/>
+      <c r="J16" s="276"/>
+      <c r="K16" s="276"/>
+      <c r="L16" s="276"/>
+      <c r="M16" s="277"/>
     </row>
     <row r="17" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C17" s="33">
@@ -9818,18 +9818,18 @@
       <c r="E17" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="F17" s="275" t="s">
+      <c r="F17" s="282" t="s">
         <v>235</v>
       </c>
-      <c r="G17" s="269">
+      <c r="G17" s="276">
         <v>0.8</v>
       </c>
-      <c r="H17" s="269"/>
-      <c r="I17" s="269"/>
-      <c r="J17" s="269"/>
-      <c r="K17" s="269"/>
-      <c r="L17" s="269"/>
-      <c r="M17" s="270"/>
+      <c r="H17" s="276"/>
+      <c r="I17" s="276"/>
+      <c r="J17" s="276"/>
+      <c r="K17" s="276"/>
+      <c r="L17" s="276"/>
+      <c r="M17" s="277"/>
     </row>
     <row r="18" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="33">
@@ -9842,13 +9842,13 @@
         <v>336</v>
       </c>
       <c r="F18" s="249"/>
-      <c r="G18" s="269"/>
-      <c r="H18" s="269"/>
-      <c r="I18" s="269"/>
-      <c r="J18" s="269"/>
-      <c r="K18" s="269"/>
-      <c r="L18" s="269"/>
-      <c r="M18" s="270"/>
+      <c r="G18" s="276"/>
+      <c r="H18" s="276"/>
+      <c r="I18" s="276"/>
+      <c r="J18" s="276"/>
+      <c r="K18" s="276"/>
+      <c r="L18" s="276"/>
+      <c r="M18" s="277"/>
     </row>
     <row r="19" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="33">
@@ -9861,20 +9861,20 @@
         <v>336</v>
       </c>
       <c r="F19" s="250"/>
-      <c r="G19" s="269"/>
-      <c r="H19" s="269"/>
-      <c r="I19" s="269"/>
-      <c r="J19" s="269"/>
-      <c r="K19" s="269"/>
-      <c r="L19" s="269"/>
-      <c r="M19" s="270"/>
+      <c r="G19" s="276"/>
+      <c r="H19" s="276"/>
+      <c r="I19" s="276"/>
+      <c r="J19" s="276"/>
+      <c r="K19" s="276"/>
+      <c r="L19" s="276"/>
+      <c r="M19" s="277"/>
     </row>
     <row r="20" spans="3:13" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="33">
         <v>7</v>
       </c>
-      <c r="D20" s="275"/>
-      <c r="E20" s="275"/>
+      <c r="D20" s="282"/>
+      <c r="E20" s="282"/>
       <c r="F20" s="21" t="s">
         <v>193</v>
       </c>
@@ -9997,20 +9997,20 @@
       <c r="C24" s="35">
         <v>11</v>
       </c>
-      <c r="D24" s="276"/>
-      <c r="E24" s="277"/>
+      <c r="D24" s="283"/>
+      <c r="E24" s="284"/>
       <c r="F24" s="36" t="s">
         <v>197</v>
       </c>
-      <c r="G24" s="271">
+      <c r="G24" s="278">
         <v>0</v>
       </c>
-      <c r="H24" s="271"/>
-      <c r="I24" s="271"/>
-      <c r="J24" s="271"/>
-      <c r="K24" s="271"/>
-      <c r="L24" s="271"/>
-      <c r="M24" s="272"/>
+      <c r="H24" s="278"/>
+      <c r="I24" s="278"/>
+      <c r="J24" s="278"/>
+      <c r="K24" s="278"/>
+      <c r="L24" s="278"/>
+      <c r="M24" s="279"/>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="D29" s="254"/>
@@ -10055,14 +10055,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="J12:L12"/>
     <mergeCell ref="C8:M8"/>
@@ -10073,6 +10065,14 @@
     <mergeCell ref="G17:M19"/>
     <mergeCell ref="D20:D24"/>
     <mergeCell ref="E20:E24"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="O1" location="'Rating Algorithm'!A20" display="Rating Algorithm'!A20"/>
@@ -10199,10 +10199,10 @@
       <c r="F3" s="16"/>
     </row>
     <row r="4" spans="2:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="231" t="s">
+      <c r="C4" s="205" t="s">
         <v>508</v>
       </c>
-      <c r="D4" s="233"/>
+      <c r="D4" s="207"/>
       <c r="F4" s="16"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
@@ -10546,7 +10546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
@@ -11146,10 +11146,10 @@
       <c r="E15" s="69"/>
     </row>
     <row r="18" spans="3:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="C18" s="241" t="s">
+      <c r="C18" s="243" t="s">
         <v>714</v>
       </c>
-      <c r="D18" s="240"/>
+      <c r="D18" s="242"/>
     </row>
     <row r="19" spans="3:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="116" t="s">
@@ -13196,10 +13196,10 @@
     </row>
     <row r="5" spans="1:9" s="15" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
-      <c r="C5" s="242" t="s">
+      <c r="C5" s="240" t="s">
         <v>661</v>
       </c>
-      <c r="D5" s="243"/>
+      <c r="D5" s="241"/>
       <c r="E5" s="153"/>
       <c r="F5" s="16"/>
     </row>
@@ -13211,10 +13211,10 @@
       <c r="F6" s="16"/>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="221" t="s">
         <v>665</v>
       </c>
-      <c r="D8" s="207"/>
+      <c r="D8" s="223"/>
       <c r="E8" s="15"/>
     </row>
     <row r="9" spans="1:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -13277,10 +13277,10 @@
     </row>
     <row r="17" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C19" s="240" t="s">
+      <c r="C19" s="242" t="s">
         <v>666</v>
       </c>
-      <c r="D19" s="240"/>
+      <c r="D19" s="242"/>
     </row>
     <row r="20" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C20" s="39" t="s">
@@ -13333,10 +13333,10 @@
     <row r="27" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="3:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="241" t="s">
+      <c r="C29" s="243" t="s">
         <v>667</v>
       </c>
-      <c r="D29" s="241"/>
+      <c r="D29" s="243"/>
     </row>
     <row r="30" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="39" t="s">
@@ -13396,10 +13396,10 @@
     </row>
     <row r="38" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="40" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C40" s="240" t="s">
+      <c r="C40" s="242" t="s">
         <v>668</v>
       </c>
-      <c r="D40" s="240"/>
+      <c r="D40" s="242"/>
     </row>
     <row r="41" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C41" s="39" t="s">
@@ -13459,10 +13459,10 @@
     </row>
     <row r="49" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C51" s="241" t="s">
+      <c r="C51" s="243" t="s">
         <v>669</v>
       </c>
-      <c r="D51" s="241"/>
+      <c r="D51" s="243"/>
     </row>
     <row r="52" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C52" s="39" t="s">
@@ -13530,10 +13530,10 @@
     </row>
     <row r="61" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="63" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C63" s="240" t="s">
+      <c r="C63" s="242" t="s">
         <v>670</v>
       </c>
-      <c r="D63" s="240"/>
+      <c r="D63" s="242"/>
     </row>
     <row r="64" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C64" s="39" t="s">
@@ -13601,10 +13601,10 @@
     </row>
     <row r="73" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="75" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C75" s="240" t="s">
+      <c r="C75" s="242" t="s">
         <v>671</v>
       </c>
-      <c r="D75" s="240"/>
+      <c r="D75" s="242"/>
     </row>
     <row r="76" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C76" s="39" t="s">
@@ -13664,10 +13664,10 @@
     </row>
     <row r="84" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="86" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C86" s="240" t="s">
+      <c r="C86" s="242" t="s">
         <v>672</v>
       </c>
-      <c r="D86" s="240"/>
+      <c r="D86" s="242"/>
     </row>
     <row r="87" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C87" s="39" t="s">
@@ -13727,10 +13727,10 @@
     </row>
     <row r="95" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="97" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C97" s="241" t="s">
+      <c r="C97" s="243" t="s">
         <v>673</v>
       </c>
-      <c r="D97" s="241"/>
+      <c r="D97" s="243"/>
     </row>
     <row r="98" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C98" s="39" t="s">
@@ -13798,10 +13798,10 @@
     </row>
     <row r="107" spans="3:4" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C109" s="240" t="s">
+      <c r="C109" s="242" t="s">
         <v>674</v>
       </c>
-      <c r="D109" s="240"/>
+      <c r="D109" s="242"/>
     </row>
     <row r="110" spans="3:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C110" s="39" t="s">
@@ -13862,17 +13862,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C40:D40"/>
     <mergeCell ref="C109:D109"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="C63:D63"/>
     <mergeCell ref="C75:D75"/>
     <mergeCell ref="C86:D86"/>
     <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C40:D40"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F1" location="'Rating Algorithm'!A26" display="Rating Algorithm'!A26"/>
@@ -14012,11 +14012,11 @@
     <row r="5" spans="1:7" s="15" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="153"/>
-      <c r="C5" s="242" t="s">
+      <c r="C5" s="240" t="s">
         <v>662</v>
       </c>
       <c r="D5" s="245"/>
-      <c r="E5" s="243"/>
+      <c r="E5" s="241"/>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:7" s="15" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -14027,10 +14027,10 @@
       <c r="G6" s="16"/>
     </row>
     <row r="8" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="241" t="s">
+      <c r="C8" s="243" t="s">
         <v>675</v>
       </c>
-      <c r="D8" s="240"/>
+      <c r="D8" s="242"/>
     </row>
     <row r="9" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C9" s="39" t="s">
@@ -14221,10 +14221,10 @@
     </row>
     <row r="35" spans="2:9" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C37" s="240" t="s">
+      <c r="C37" s="242" t="s">
         <v>677</v>
       </c>
-      <c r="D37" s="240"/>
+      <c r="D37" s="242"/>
     </row>
     <row r="38" spans="2:9" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C38" s="39" t="s">
@@ -14431,11 +14431,11 @@
     <row r="5" spans="1:11" s="15" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="B5" s="153"/>
-      <c r="C5" s="242" t="s">
+      <c r="C5" s="240" t="s">
         <v>663</v>
       </c>
       <c r="D5" s="245"/>
-      <c r="E5" s="243"/>
+      <c r="E5" s="241"/>
       <c r="G5" s="16"/>
     </row>
     <row r="6" spans="1:11" s="15" customFormat="1" x14ac:dyDescent="0.3">
@@ -14484,10 +14484,10 @@
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="241" t="s">
+      <c r="C15" s="243" t="s">
         <v>684</v>
       </c>
-      <c r="D15" s="241"/>
+      <c r="D15" s="243"/>
     </row>
     <row r="16" spans="1:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C16" s="39" t="s">
@@ -14525,10 +14525,10 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="241" t="s">
+      <c r="C22" s="243" t="s">
         <v>685</v>
       </c>
-      <c r="D22" s="241"/>
+      <c r="D22" s="243"/>
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
@@ -14558,10 +14558,10 @@
     </row>
     <row r="27" spans="3:11" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="241" t="s">
+      <c r="C29" s="243" t="s">
         <v>686</v>
       </c>
-      <c r="D29" s="241"/>
+      <c r="D29" s="243"/>
     </row>
     <row r="30" spans="3:11" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="39" t="s">
@@ -14589,10 +14589,10 @@
     </row>
     <row r="34" spans="2:10" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="36" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C36" s="241" t="s">
+      <c r="C36" s="243" t="s">
         <v>478</v>
       </c>
-      <c r="D36" s="241"/>
+      <c r="D36" s="243"/>
     </row>
     <row r="37" spans="2:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C37" s="39" t="s">
@@ -14967,7 +14967,7 @@
     </row>
     <row r="5" spans="1:8" s="15" customFormat="1" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
-      <c r="C5" s="231" t="s">
+      <c r="C5" s="205" t="s">
         <v>664</v>
       </c>
       <c r="D5" s="261"/>
@@ -14978,10 +14978,10 @@
       <c r="H6" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="241" t="s">
+      <c r="C8" s="243" t="s">
         <v>687</v>
       </c>
-      <c r="D8" s="241"/>
+      <c r="D8" s="243"/>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -15041,10 +15041,10 @@
       <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="241" t="s">
+      <c r="C15" s="243" t="s">
         <v>688</v>
       </c>
-      <c r="D15" s="241"/>
+      <c r="D15" s="243"/>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -15104,11 +15104,11 @@
       <c r="H21" s="15"/>
     </row>
     <row r="22" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C22" s="205" t="s">
+      <c r="C22" s="221" t="s">
         <v>689</v>
       </c>
-      <c r="D22" s="206"/>
-      <c r="E22" s="207"/>
+      <c r="D22" s="222"/>
+      <c r="E22" s="223"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -15154,12 +15154,12 @@
     </row>
     <row r="27" spans="3:8" s="15" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="29" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="205" t="s">
+      <c r="C29" s="221" t="s">
         <v>690</v>
       </c>
-      <c r="D29" s="206"/>
-      <c r="E29" s="206"/>
-      <c r="F29" s="207"/>
+      <c r="D29" s="222"/>
+      <c r="E29" s="222"/>
+      <c r="F29" s="223"/>
     </row>
     <row r="30" spans="3:8" ht="18.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C30" s="39" t="s">
